--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -175,10 +175,16 @@
     <t>upd.RO.ACT.001.MAJ.01</t>
   </si>
   <si>
+    <t>UPD.RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
     <t>ORG04</t>
   </si>
   <si>
     <t>upd.RO.ACT.001.MAJ.01.A</t>
+  </si>
+  <si>
+    <t>UPD.RO.ACT.001.MAJ.01.A</t>
   </si>
   <si>
     <t>ORG05</t>
@@ -2101,7 +2107,7 @@
         <v>1001.0</v>
       </c>
       <c r="G2" s="14" t="str">
-        <f t="shared" ref="G2:G40" si="2">CONCATENATE(C2,REPT(".",30-LEN(C2)))</f>
+        <f t="shared" ref="G2:G40" si="2">CONCATENATE(UPPER(C2),REPT(".",30-LEN(C2)))</f>
         <v>RO.ACT.001.CRE.01.............</v>
       </c>
       <c r="H2" s="15">
@@ -2380,23 +2386,23 @@
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>upd.RO.ACT.001.MAJ.01.........</v>
+        <v>UPD.RO.ACT.001.MAJ.01.........</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="13">
         <v>1004.0</v>
       </c>
       <c r="G5" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>upd.RO.ACT.001.MAJ.01.........</v>
+        <v>UPD.RO.ACT.001.MAJ.01.........</v>
       </c>
       <c r="H5" s="15">
         <v>1.0</v>
@@ -2478,23 +2484,23 @@
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>upd.RO.ACT.001.MAJ.01.A.......</v>
+        <v>UPD.RO.ACT.001.MAJ.01.A.......</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" s="15">
         <v>1005.0</v>
       </c>
       <c r="G6" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>upd.RO.ACT.001.MAJ.01.A.......</v>
+        <v>UPD.RO.ACT.001.MAJ.01.A.......</v>
       </c>
       <c r="H6" s="15">
         <v>1.0</v>
@@ -2546,7 +2552,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y6" s="12" t="s">
         <v>41</v>
@@ -2572,20 +2578,20 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.001.REC.01.............</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="13">
         <v>1006.0</v>
@@ -2670,20 +2676,20 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.001.SUP.01.............</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="13">
         <v>1007.0</v>
@@ -2768,20 +2774,20 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRA.01..........</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="13">
         <v>1008.0</v>
@@ -2866,20 +2872,20 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRM.01..........</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13">
         <v>1009.0</v>
@@ -2964,20 +2970,20 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRS.01..........</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="13">
         <v>1010.0</v>
@@ -3062,20 +3068,20 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRA.01..........</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" s="13">
         <v>1011.0</v>
@@ -3160,20 +3166,20 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRM.01..........</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="13">
         <v>1012.0</v>
@@ -3258,20 +3264,20 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRS.01..........</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="13">
         <v>1013.0</v>
@@ -3356,20 +3362,20 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRA.01..........</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="13">
         <v>1014.0</v>
@@ -3454,20 +3460,20 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRM.01..........</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="13">
         <v>1015.0</v>
@@ -3552,20 +3558,20 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRS.01..........</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="13">
         <v>1016.0</v>
@@ -3650,20 +3656,20 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.005.FON.01.SRC.........</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="13">
         <v>1017.0</v>
@@ -3755,13 +3761,13 @@
         <v>RO.ACT.001.LEC.01.A...........</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" s="15">
         <v>1018.0</v>
@@ -3820,7 +3826,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>41</v>
@@ -3853,13 +3859,13 @@
         <v>RO.ACT.001.MAJ.01.A...........</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" s="15">
         <v>1019.0</v>
@@ -3918,7 +3924,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>41</v>
@@ -3944,20 +3950,20 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.001.SUP.01.A...........</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21" s="15">
         <v>1020.0</v>
@@ -4016,7 +4022,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>41</v>
@@ -4042,20 +4048,20 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRA.01.A........</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" s="15">
         <v>1021.0</v>
@@ -4114,7 +4120,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>41</v>
@@ -4140,20 +4146,20 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRM.01.A........</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F23" s="15">
         <v>1022.0</v>
@@ -4212,7 +4218,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y23" s="12" t="s">
         <v>41</v>
@@ -4238,20 +4244,20 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRS.01.A........</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F24" s="15">
         <v>1023.0</v>
@@ -4310,7 +4316,7 @@
         <v>0.0</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y24" s="12" t="s">
         <v>41</v>
@@ -4336,20 +4342,20 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRA.01.A........</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" s="15">
         <v>1024.0</v>
@@ -4408,7 +4414,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y25" s="12" t="s">
         <v>41</v>
@@ -4434,20 +4440,20 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRM.01.A........</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F26" s="15">
         <v>1025.0</v>
@@ -4506,7 +4512,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y26" s="12" t="s">
         <v>41</v>
@@ -4532,20 +4538,20 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRS.01.A........</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F27" s="15">
         <v>1026.0</v>
@@ -4604,7 +4610,7 @@
         <v>0.0</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y27" s="12" t="s">
         <v>41</v>
@@ -4630,20 +4636,20 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRA.01.A........</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F28" s="15">
         <v>1027.0</v>
@@ -4702,7 +4708,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>41</v>
@@ -4728,20 +4734,20 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRM.01.A........</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" s="15">
         <v>1028.0</v>
@@ -4800,7 +4806,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>41</v>
@@ -4826,20 +4832,20 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRS.01.A........</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F30" s="15">
         <v>1029.0</v>
@@ -4898,7 +4904,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>41</v>
@@ -4924,20 +4930,20 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.005.FON.01.SRC.A.......</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F31" s="15">
         <v>1030.0</v>
@@ -4996,7 +5002,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y31" s="12" t="s">
         <v>41</v>
@@ -5022,20 +5028,20 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRL.01..........</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F32" s="13">
         <v>1031.0</v>
@@ -5120,20 +5126,20 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRL.01..........</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F33" s="13">
         <v>1032.0</v>
@@ -5218,20 +5224,20 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRL.01..........</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="13">
         <v>1033.0</v>
@@ -5316,20 +5322,20 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003HAB.SRL.01.A........</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="15">
         <v>1034.0</v>
@@ -5388,7 +5394,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>41</v>
@@ -5414,20 +5420,20 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.003MET.SRL.01.A........</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F36" s="15">
         <v>1035.0</v>
@@ -5486,7 +5492,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>41</v>
@@ -5512,20 +5518,20 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.004EMP.SRL.01.A........</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F37" s="15">
         <v>1036.0</v>
@@ -5584,7 +5590,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>41</v>
@@ -5617,13 +5623,13 @@
         <v>RO.ACT.001.CRE.01.A...........</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F38" s="15">
         <v>1037.0</v>
@@ -5682,7 +5688,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>41</v>
@@ -5708,20 +5714,20 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.005.FON.01.............</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F39" s="13">
         <v>1038.0</v>
@@ -5806,20 +5812,20 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>RO.ACT.005.FON.01.A...........</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F40" s="15">
         <v>1039.0</v>
@@ -5878,7 +5884,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>41</v>
@@ -37527,7 +37533,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>11</v>
@@ -37634,7 +37640,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="31">
         <v>1004.0</v>
@@ -37642,13 +37648,13 @@
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="28">
         <v>2005.0</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="30">
         <v>10.0</v>
@@ -37660,7 +37666,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" s="31">
         <v>1006.0</v>
@@ -37668,13 +37674,13 @@
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="28">
         <v>2006.0</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="30">
         <v>10.0</v>
@@ -37686,7 +37692,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="31">
         <v>1007.0</v>
@@ -37694,13 +37700,13 @@
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="28">
         <v>2007.0</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="30">
         <v>10.0</v>
@@ -37712,7 +37718,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="31">
         <v>1008.0</v>
@@ -37720,13 +37726,13 @@
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="28">
         <v>2008.0</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="30">
         <v>10.0</v>
@@ -37738,7 +37744,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="31">
         <v>1009.0</v>
@@ -37746,13 +37752,13 @@
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="28">
         <v>2009.0</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="30">
         <v>10.0</v>
@@ -37764,7 +37770,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="31">
         <v>1010.0</v>
@@ -37772,13 +37778,13 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="28">
         <v>2010.0</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="30">
         <v>10.0</v>
@@ -37790,7 +37796,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H11" s="31">
         <v>1011.0</v>
@@ -37798,13 +37804,13 @@
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="28">
         <v>2011.0</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="30">
         <v>10.0</v>
@@ -37816,7 +37822,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="31">
         <v>1012.0</v>
@@ -37824,13 +37830,13 @@
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="28">
         <v>2012.0</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="30">
         <v>10.0</v>
@@ -37842,7 +37848,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="31">
         <v>1013.0</v>
@@ -37850,13 +37856,13 @@
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="28">
         <v>2013.0</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" s="30">
         <v>10.0</v>
@@ -37868,7 +37874,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="31">
         <v>1014.0</v>
@@ -37876,13 +37882,13 @@
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="28">
         <v>2014.0</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="30">
         <v>10.0</v>
@@ -37894,7 +37900,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" s="31">
         <v>1015.0</v>
@@ -37902,13 +37908,13 @@
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="28">
         <v>2015.0</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="30">
         <v>10.0</v>
@@ -37920,7 +37926,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="31">
         <v>1016.0</v>
@@ -37928,13 +37934,13 @@
     </row>
     <row r="17">
       <c r="A17" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" s="28">
         <v>2016.0</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="30">
         <v>10.0</v>
@@ -37946,7 +37952,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="31">
         <v>1017.0</v>
@@ -37954,13 +37960,13 @@
     </row>
     <row r="18">
       <c r="A18" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" s="28">
         <v>2017.0</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" s="30">
         <v>0.0</v>
@@ -37972,7 +37978,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H18" s="31">
         <v>1031.0</v>
@@ -37980,13 +37986,13 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="28">
         <v>2018.0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19" s="30">
         <v>0.0</v>
@@ -37998,7 +38004,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="31">
         <v>1032.0</v>
@@ -38006,13 +38012,13 @@
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B20" s="28">
         <v>2019.0</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20" s="30">
         <v>0.0</v>
@@ -38024,7 +38030,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="31">
         <v>1033.0</v>
@@ -38032,13 +38038,13 @@
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="28">
         <v>2020.0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="30">
         <v>10.0</v>
@@ -38050,7 +38056,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H21" s="31">
         <v>1038.0</v>

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -1060,11 +1060,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="7"/>
@@ -1236,6 +1236,9 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1245,31 +1248,28 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1278,19 +1278,19 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2936,6 +2936,9 @@
       <c r="J3" s="19">
         <v>2002.0</v>
       </c>
+      <c r="K3" s="24">
+        <v>1.0</v>
+      </c>
       <c r="L3" s="22">
         <v>10.0</v>
       </c>
@@ -3224,7 +3227,7 @@
       <c r="I6" s="21">
         <v>5.0</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="22">
@@ -3790,10 +3793,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRA.01......</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -3888,10 +3891,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRM.01......</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -3986,10 +3989,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRS.01......</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -4498,7 +4501,7 @@
       <c r="I19" s="21">
         <v>18.0</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="22">
@@ -4596,7 +4599,7 @@
       <c r="I20" s="21">
         <v>19.0</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K20" s="22">
@@ -4694,7 +4697,7 @@
       <c r="I21" s="21">
         <v>20.0</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K21" s="22">
@@ -4792,7 +4795,7 @@
       <c r="I22" s="21">
         <v>21.0</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="22">
@@ -4890,7 +4893,7 @@
       <c r="I23" s="21">
         <v>22.0</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K23" s="22">
@@ -4988,7 +4991,7 @@
       <c r="I24" s="21">
         <v>23.0</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="22">
@@ -5064,10 +5067,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRA.01.A....</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -5086,7 +5089,7 @@
       <c r="I25" s="21">
         <v>24.0</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K25" s="22">
@@ -5162,10 +5165,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRM.01.A....</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -5184,7 +5187,7 @@
       <c r="I26" s="21">
         <v>25.0</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K26" s="22">
@@ -5260,10 +5263,10 @@
         <f t="shared" si="1"/>
         <v>ORG.RO.ACT.003MET.SRS.01.A....</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -5282,7 +5285,7 @@
       <c r="I27" s="21">
         <v>26.0</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="22">
@@ -5380,7 +5383,7 @@
       <c r="I28" s="21">
         <v>27.0</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K28" s="22">
@@ -5478,7 +5481,7 @@
       <c r="I29" s="21">
         <v>28.0</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K29" s="22">
@@ -5576,7 +5579,7 @@
       <c r="I30" s="21">
         <v>29.0</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K30" s="22">
@@ -5674,7 +5677,7 @@
       <c r="I31" s="21">
         <v>30.0</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K31" s="22">
@@ -6066,7 +6069,7 @@
       <c r="I35" s="21">
         <v>34.0</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K35" s="22">
@@ -6164,7 +6167,7 @@
       <c r="I36" s="21">
         <v>35.0</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="22">
@@ -6262,7 +6265,7 @@
       <c r="I37" s="21">
         <v>36.0</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K37" s="22">
@@ -6360,7 +6363,7 @@
       <c r="I38" s="21">
         <v>37.0</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="22">
@@ -6556,7 +6559,7 @@
       <c r="I40" s="21">
         <v>39.0</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K40" s="22">
@@ -6625,17 +6628,17 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>181</v>
       </c>
       <c r="B41" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RO.FOU.001.CRE.01.........</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="30" t="s">
         <v>183</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -6654,7 +6657,7 @@
       <c r="I41" s="21">
         <v>40.0</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K41" s="22">
@@ -6723,17 +6726,17 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="28" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RO.FOU.001.LEC.01.........</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>187</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -6752,7 +6755,7 @@
       <c r="I42" s="21">
         <v>41.0</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K42" s="22">
@@ -6821,17 +6824,17 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B43" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RO.FOU.001.MAJ.01.........</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="30" t="s">
         <v>191</v>
       </c>
       <c r="E43" s="17" t="s">
@@ -6850,7 +6853,7 @@
       <c r="I43" s="21">
         <v>42.0</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K43" s="22">
@@ -6919,17 +6922,17 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B44" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.RO.FOU.001.MAJ.01.....</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>194</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -6948,7 +6951,7 @@
       <c r="I44" s="21">
         <v>43.0</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K44" s="22">
@@ -7017,17 +7020,17 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RO.FOU.001.SUP.01.........</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="29" t="s">
         <v>198</v>
       </c>
       <c r="E45" s="17" t="s">
@@ -7046,7 +7049,7 @@
       <c r="I45" s="21">
         <v>44.0</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="22">
@@ -7115,17 +7118,17 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>200</v>
       </c>
       <c r="B46" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.MP.CPT.001.CRE.01.........</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="24" t="s">
         <v>202</v>
       </c>
       <c r="E46" s="17" t="s">
@@ -7144,7 +7147,7 @@
       <c r="I46" s="21">
         <v>45.0</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="22">
@@ -7213,17 +7216,17 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B47" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.MP.CPT.001.CRE.02.........</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="29" t="s">
         <v>206</v>
       </c>
       <c r="E47" s="17" t="s">
@@ -7242,7 +7245,7 @@
       <c r="I47" s="21">
         <v>46.0</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K47" s="22">
@@ -7311,17 +7314,17 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B48" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.CPT.MP.CPT.001.CRE.02.....</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="29" t="s">
         <v>209</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -7340,7 +7343,7 @@
       <c r="I48" s="21">
         <v>47.0</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K48" s="22">
@@ -7409,17 +7412,17 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>211</v>
       </c>
       <c r="B49" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.MP.CPT.001.MAJ.01.....</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="29" t="s">
         <v>213</v>
       </c>
       <c r="E49" s="17" t="s">
@@ -7438,7 +7441,7 @@
       <c r="I49" s="21">
         <v>48.0</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="22">
@@ -7514,10 +7517,10 @@
         <f t="shared" si="1"/>
         <v>ORG.MP.CPT.001.LEC.01.........</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="29" t="s">
         <v>217</v>
       </c>
       <c r="E50" s="17" t="s">
@@ -7536,7 +7539,7 @@
       <c r="I50" s="21">
         <v>49.0</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K50" s="22">
@@ -7612,10 +7615,10 @@
         <f t="shared" si="1"/>
         <v>ORG.MP.CPT.001.MAJ.01.........</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="29" t="s">
         <v>220</v>
       </c>
       <c r="E51" s="17" t="s">
@@ -7634,7 +7637,7 @@
       <c r="I51" s="21">
         <v>50.0</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K51" s="22">
@@ -7710,10 +7713,10 @@
         <f t="shared" si="1"/>
         <v>ORG.MP.CPT.001.SUP.01.........</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="29" t="s">
         <v>224</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -7732,7 +7735,7 @@
       <c r="I52" s="21">
         <v>51.0</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K52" s="22">
@@ -7830,7 +7833,7 @@
       <c r="I53" s="21">
         <v>52.0</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K53" s="22">
@@ -7928,7 +7931,7 @@
       <c r="I54" s="21">
         <v>53.0</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J54" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K54" s="22">
@@ -7997,14 +8000,14 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B55" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.CRE.03.........</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="30" t="s">
         <v>233</v>
       </c>
       <c r="D55" s="36" t="s">
@@ -8026,7 +8029,7 @@
       <c r="I55" s="21">
         <v>54.0</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K55" s="22">
@@ -8095,14 +8098,14 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="28" t="s">
         <v>235</v>
       </c>
       <c r="B56" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.CRE.04.........</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="30" t="s">
         <v>236</v>
       </c>
       <c r="D56" s="36" t="s">
@@ -8124,7 +8127,7 @@
       <c r="I56" s="21">
         <v>55.0</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K56" s="22">
@@ -8193,14 +8196,14 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B57" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.LEC.01.........</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="30" t="s">
         <v>239</v>
       </c>
       <c r="D57" s="36" t="s">
@@ -8222,7 +8225,7 @@
       <c r="I57" s="21">
         <v>56.0</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J57" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K57" s="22">
@@ -8291,14 +8294,14 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="28" t="s">
         <v>241</v>
       </c>
       <c r="B58" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.RT.ART.001.MAJ.01.....</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="36" t="s">
@@ -8320,7 +8323,7 @@
       <c r="I58" s="21">
         <v>57.0</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J58" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K58" s="22">
@@ -8396,7 +8399,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.MAJ.01.........</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="30" t="s">
         <v>244</v>
       </c>
       <c r="D59" s="36" t="s">
@@ -8418,7 +8421,7 @@
       <c r="I59" s="21">
         <v>58.0</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K59" s="22">
@@ -8494,7 +8497,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.SUP.01.........</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="30" t="s">
         <v>247</v>
       </c>
       <c r="D60" s="36" t="s">
@@ -8516,7 +8519,7 @@
       <c r="I60" s="21">
         <v>59.0</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J60" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K60" s="22">
@@ -8592,7 +8595,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.ART.001.REC.01.........</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="30" t="s">
         <v>250</v>
       </c>
       <c r="D61" s="36" t="s">
@@ -8614,7 +8617,7 @@
       <c r="I61" s="21">
         <v>60.0</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K61" s="22">
@@ -8683,14 +8686,14 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>252</v>
       </c>
       <c r="B62" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.EQU.001.CRE.01.........</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="30" t="s">
         <v>253</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -8712,7 +8715,7 @@
       <c r="I62" s="21">
         <v>61.0</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K62" s="22">
@@ -8781,14 +8784,14 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>255</v>
       </c>
       <c r="B63" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.EQU.001.LEC.01.........</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="30" t="s">
         <v>256</v>
       </c>
       <c r="D63" s="36" t="s">
@@ -8810,7 +8813,7 @@
       <c r="I63" s="21">
         <v>62.0</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K63" s="22">
@@ -8879,14 +8882,14 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B64" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.EQU.001.MAJ.01.........</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="30" t="s">
         <v>259</v>
       </c>
       <c r="D64" s="36" t="s">
@@ -8908,7 +8911,7 @@
       <c r="I64" s="21">
         <v>63.0</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K64" s="22">
@@ -8977,14 +8980,14 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B65" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.RT.EQU.001.MAJ.01.....</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="36" t="s">
@@ -9006,7 +9009,7 @@
       <c r="I65" s="21">
         <v>64.0</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K65" s="22">
@@ -9082,7 +9085,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.EQU.001.SUP.01.........</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>264</v>
       </c>
       <c r="D66" s="36" t="s">
@@ -9104,7 +9107,7 @@
       <c r="I66" s="21">
         <v>65.0</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K66" s="22">
@@ -9180,7 +9183,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.EQU.001.REC.01.........</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="30" t="s">
         <v>267</v>
       </c>
       <c r="D67" s="36" t="s">
@@ -9202,7 +9205,7 @@
       <c r="I67" s="21">
         <v>66.0</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K67" s="22">
@@ -9271,14 +9274,14 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="28" t="s">
         <v>269</v>
       </c>
       <c r="B68" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.01.........</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="30" t="s">
         <v>270</v>
       </c>
       <c r="D68" s="36" t="s">
@@ -9369,14 +9372,14 @@
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B69" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.02.........</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="30" t="s">
         <v>273</v>
       </c>
       <c r="D69" s="36" t="s">
@@ -9467,14 +9470,14 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="28" t="s">
         <v>275</v>
       </c>
       <c r="B70" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.03.........</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="30" t="s">
         <v>276</v>
       </c>
       <c r="D70" s="36" t="s">
@@ -9565,14 +9568,14 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B71" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.04.........</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="30" t="s">
         <v>279</v>
       </c>
       <c r="D71" s="36" t="s">
@@ -9663,14 +9666,14 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>281</v>
       </c>
       <c r="B72" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.05.........</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="30" t="s">
         <v>282</v>
       </c>
       <c r="D72" s="36" t="s">
@@ -9761,14 +9764,14 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>284</v>
       </c>
       <c r="B73" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.06.........</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="30" t="s">
         <v>285</v>
       </c>
       <c r="D73" s="36" t="s">
@@ -9859,14 +9862,14 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>287</v>
       </c>
       <c r="B74" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.CRE.07.........</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="30" t="s">
         <v>288</v>
       </c>
       <c r="D74" s="36" t="s">
@@ -9957,14 +9960,14 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="28" t="s">
         <v>290</v>
       </c>
       <c r="B75" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.LEC.01.........</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="36" t="s">
@@ -10055,14 +10058,14 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="28" t="s">
         <v>293</v>
       </c>
       <c r="B76" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.RT.MAT.001.MAJ.01.....</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D76" s="36" t="s">
@@ -10160,7 +10163,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.MAJ.01.........</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="29" t="s">
         <v>296</v>
       </c>
       <c r="D77" s="36" t="s">
@@ -10356,7 +10359,7 @@
         <f t="shared" si="1"/>
         <v>ORG.RT.MAT.001.REC.01.........</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="29" t="s">
         <v>302</v>
       </c>
       <c r="D79" s="36" t="s">
@@ -10447,7 +10450,7 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="28" t="s">
         <v>304</v>
       </c>
       <c r="B80" s="16" t="str">
@@ -10545,14 +10548,14 @@
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="28" t="s">
         <v>307</v>
       </c>
       <c r="B81" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.CRE.02.........</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="30" t="s">
         <v>308</v>
       </c>
       <c r="D81" s="36" t="s">
@@ -10574,7 +10577,7 @@
       <c r="I81" s="21">
         <v>80.0</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K81" s="22">
@@ -10643,14 +10646,14 @@
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="28" t="s">
         <v>310</v>
       </c>
       <c r="B82" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.CRE.03.........</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="30" t="s">
         <v>311</v>
       </c>
       <c r="D82" s="36" t="s">
@@ -10672,7 +10675,7 @@
       <c r="I82" s="21">
         <v>81.0</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K82" s="22">
@@ -10741,14 +10744,14 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="28" t="s">
         <v>313</v>
       </c>
       <c r="B83" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.LEC.01.........</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>314</v>
       </c>
       <c r="D83" s="36" t="s">
@@ -10770,7 +10773,7 @@
       <c r="I83" s="21">
         <v>82.0</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K83" s="22">
@@ -10839,14 +10842,14 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="28" t="s">
         <v>316</v>
       </c>
       <c r="B84" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ORG.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="30" t="s">
         <v>317</v>
       </c>
       <c r="D84" s="36" t="s">
@@ -10868,7 +10871,7 @@
       <c r="I84" s="21">
         <v>83.0</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J84" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K84" s="22">
@@ -10944,7 +10947,7 @@
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.MAJ.01.........</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="30" t="s">
         <v>319</v>
       </c>
       <c r="D85" s="36" t="s">
@@ -10966,7 +10969,7 @@
       <c r="I85" s="21">
         <v>84.0</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J85" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K85" s="22">
@@ -11042,7 +11045,7 @@
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.SUP.01.........</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="30" t="s">
         <v>322</v>
       </c>
       <c r="D86" s="36" t="s">
@@ -11064,7 +11067,7 @@
       <c r="I86" s="21">
         <v>85.0</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J86" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K86" s="22">
@@ -11140,7 +11143,7 @@
         <f t="shared" si="1"/>
         <v>ORG.TR.BTR.001.REC.01.........</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="30" t="s">
         <v>325</v>
       </c>
       <c r="D87" s="36" t="s">
@@ -11162,7 +11165,7 @@
       <c r="I87" s="21">
         <v>86.0</v>
       </c>
-      <c r="J87" s="24" t="s">
+      <c r="J87" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K87" s="22">
@@ -41224,7 +41227,7 @@
       <c r="F22" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="52">
@@ -41250,7 +41253,7 @@
       <c r="F23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="52">
@@ -41276,7 +41279,7 @@
       <c r="F24" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H24" s="52">
@@ -41302,7 +41305,7 @@
       <c r="F25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H25" s="52">
@@ -41328,7 +41331,7 @@
       <c r="F26" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H26" s="52">
@@ -41354,7 +41357,7 @@
       <c r="F27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H27" s="52">
@@ -41380,7 +41383,7 @@
       <c r="F28" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="52">
@@ -41406,7 +41409,7 @@
       <c r="F29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H29" s="52">
@@ -41432,7 +41435,7 @@
       <c r="F30" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="52">
@@ -41458,7 +41461,7 @@
       <c r="F31" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H31" s="52">
@@ -41484,7 +41487,7 @@
       <c r="F32" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H32" s="52">
@@ -41510,7 +41513,7 @@
       <c r="F33" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="52">
@@ -41518,7 +41521,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>304</v>
       </c>
       <c r="B34" s="37">
@@ -41536,7 +41539,7 @@
       <c r="F34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H34" s="52">

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -2700,18 +2700,21 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.25"/>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
     <col customWidth="1" min="2" max="2" width="29.25"/>
     <col customWidth="1" min="3" max="3" width="26.5"/>
     <col customWidth="1" min="4" max="4" width="28.38"/>
     <col customWidth="1" min="5" max="5" width="20.25"/>
     <col customWidth="1" min="7" max="7" width="28.38"/>
+    <col customWidth="1" min="10" max="10" width="34.75"/>
     <col customWidth="1" min="22" max="22" width="22.38"/>
     <col customWidth="1" min="27" max="27" width="20.75"/>
   </cols>
@@ -10583,14 +10586,14 @@
       <c r="I81" s="21">
         <v>80.0</v>
       </c>
-      <c r="J81" s="27" t="s">
-        <v>47</v>
+      <c r="J81" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="K81" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L81" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M81" s="17" t="s">
         <v>44</v>
@@ -10681,14 +10684,14 @@
       <c r="I82" s="21">
         <v>81.0</v>
       </c>
-      <c r="J82" s="27" t="s">
-        <v>47</v>
+      <c r="J82" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="K82" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L82" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M82" s="17" t="s">
         <v>44</v>
@@ -10779,14 +10782,14 @@
       <c r="I83" s="21">
         <v>82.0</v>
       </c>
-      <c r="J83" s="27" t="s">
-        <v>47</v>
+      <c r="J83" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="K83" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L83" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M83" s="17" t="s">
         <v>44</v>
@@ -10877,14 +10880,14 @@
       <c r="I84" s="21">
         <v>83.0</v>
       </c>
-      <c r="J84" s="27" t="s">
-        <v>47</v>
+      <c r="J84" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="K84" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L84" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M84" s="17" t="s">
         <v>44</v>
@@ -10975,14 +10978,14 @@
       <c r="I85" s="21">
         <v>84.0</v>
       </c>
-      <c r="J85" s="27" t="s">
-        <v>47</v>
+      <c r="J85" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="K85" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L85" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M85" s="17" t="s">
         <v>44</v>
@@ -11073,14 +11076,14 @@
       <c r="I86" s="21">
         <v>85.0</v>
       </c>
-      <c r="J86" s="27" t="s">
-        <v>47</v>
+      <c r="J86" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="K86" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L86" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M86" s="17" t="s">
         <v>44</v>
@@ -11171,14 +11174,14 @@
       <c r="I87" s="21">
         <v>86.0</v>
       </c>
-      <c r="J87" s="27" t="s">
-        <v>47</v>
+      <c r="J87" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="K87" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L87" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M87" s="17" t="s">
         <v>44</v>
@@ -41430,7 +41433,7 @@
         <v>2029.0</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D30" s="52">
         <v>10.0</v>
@@ -41550,6 +41553,188 @@
       </c>
       <c r="H34" s="54">
         <v>1079.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="26">
+        <v>2034.0</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="54">
+        <v>1080.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="26">
+        <v>2035.0</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1081.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="26">
+        <v>2036.0</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="54">
+        <v>1082.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="26">
+        <v>2037.0</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="54">
+        <v>1083.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="26">
+        <v>2038.0</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="54">
+        <v>1084.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="26">
+        <v>2039.0</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="54">
+        <v>1085.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="26">
+        <v>2040.0</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="54">
+        <v>1086.0</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -1016,7 +1016,7 @@
     <t>ORG.RO.ORG.001.LEC.01</t>
   </si>
   <si>
-    <t>IMP.RO.ORG.001.LEC.01</t>
+    <t>IMP.RO.ORG.001.LEC.01.........</t>
   </si>
   <si>
     <t>RO.ORG.001.MAJ.01</t>
@@ -1034,7 +1034,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>IMP.RO.ORG.001.MAJ.01</t>
+    <t>IMP.RO.ORG.001.MAJ.01.........</t>
   </si>
   <si>
     <t>RO.ORG.001.SUP.01</t>
@@ -1046,7 +1046,7 @@
     <t>ORG89</t>
   </si>
   <si>
-    <t>IMP.RO.ORG.001.SUP.01</t>
+    <t>IMP.RO.ORG.001.SUP.01.........</t>
   </si>
   <si>
     <t>RO.ORG.001.REC.01</t>
@@ -1058,7 +1058,7 @@
     <t>ORG90</t>
   </si>
   <si>
-    <t>IMP.RO.ORG.001.REC.01</t>
+    <t>IMP.RO.ORG.001.REC.01.........</t>
   </si>
   <si>
     <t>ORG95</t>
@@ -2782,7 +2782,7 @@
     <col customWidth="1" min="7" max="7" width="28.38"/>
     <col customWidth="1" min="10" max="10" width="34.75"/>
     <col customWidth="1" min="22" max="22" width="22.38"/>
-    <col customWidth="1" min="27" max="27" width="20.75"/>
+    <col customWidth="1" min="27" max="27" width="39.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -11488,7 +11488,7 @@
       <c r="Z89" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AA89" s="33" t="s">
+      <c r="AA89" s="34" t="s">
         <v>338</v>
       </c>
       <c r="AB89" s="24" t="s">
@@ -11586,7 +11586,7 @@
       <c r="Z90" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AA90" s="33" t="s">
+      <c r="AA90" s="34" t="s">
         <v>342</v>
       </c>
       <c r="AB90" s="24" t="s">
@@ -11684,7 +11684,7 @@
       <c r="Z91" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="33" t="s">
+      <c r="AA91" s="34" t="s">
         <v>346</v>
       </c>
       <c r="AB91" s="24" t="s">

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="SsYVURmNf3XLC4j0jb8X5sh3C09XzHhy1Nd1XZ6PL40="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="4iROg0Rl7yc3fMWcqck/vZSqIafkZv/GrQOZEGhPOy0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>IMP.RO.ORG.001.REC.01.........</t>
   </si>
   <si>
-    <t>ORG95</t>
-  </si>
-  <si>
     <t>CAS_DE_TEST (SER)</t>
   </si>
   <si>
@@ -11705,9 +11702,7 @@
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
-      <c r="E92" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="E92" s="45"/>
       <c r="F92" s="46"/>
       <c r="G92" s="45"/>
       <c r="H92" s="46"/>
@@ -40478,7 +40473,7 @@
       <c r="AD963" s="44"/>
       <c r="AE963" s="44"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964">
       <c r="A964" s="44"/>
       <c r="B964" s="45"/>
       <c r="C964" s="45"/>
@@ -40511,7 +40506,7 @@
       <c r="AD964" s="44"/>
       <c r="AE964" s="44"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965">
       <c r="A965" s="44"/>
       <c r="B965" s="45"/>
       <c r="C965" s="45"/>
@@ -40544,7 +40539,7 @@
       <c r="AD965" s="44"/>
       <c r="AE965" s="44"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966">
       <c r="A966" s="44"/>
       <c r="B966" s="45"/>
       <c r="C966" s="45"/>
@@ -40577,7 +40572,7 @@
       <c r="AD966" s="44"/>
       <c r="AE966" s="44"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967">
       <c r="A967" s="44"/>
       <c r="B967" s="45"/>
       <c r="C967" s="45"/>
@@ -40841,138 +40836,6 @@
       <c r="AD974" s="44"/>
       <c r="AE974" s="44"/>
     </row>
-    <row r="975">
-      <c r="A975" s="44"/>
-      <c r="B975" s="45"/>
-      <c r="C975" s="45"/>
-      <c r="D975" s="45"/>
-      <c r="E975" s="45"/>
-      <c r="F975" s="46"/>
-      <c r="G975" s="45"/>
-      <c r="H975" s="46"/>
-      <c r="I975" s="46"/>
-      <c r="J975" s="46"/>
-      <c r="K975" s="47"/>
-      <c r="L975" s="47"/>
-      <c r="M975" s="45"/>
-      <c r="N975" s="44"/>
-      <c r="O975" s="44"/>
-      <c r="P975" s="44"/>
-      <c r="Q975" s="44"/>
-      <c r="R975" s="46"/>
-      <c r="S975" s="44"/>
-      <c r="T975" s="45"/>
-      <c r="U975" s="45"/>
-      <c r="V975" s="45"/>
-      <c r="W975" s="45"/>
-      <c r="X975" s="45"/>
-      <c r="Y975" s="45"/>
-      <c r="Z975" s="44"/>
-      <c r="AA975" s="45"/>
-      <c r="AB975" s="44"/>
-      <c r="AC975" s="44"/>
-      <c r="AD975" s="44"/>
-      <c r="AE975" s="44"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="44"/>
-      <c r="B976" s="45"/>
-      <c r="C976" s="45"/>
-      <c r="D976" s="45"/>
-      <c r="E976" s="45"/>
-      <c r="F976" s="46"/>
-      <c r="G976" s="45"/>
-      <c r="H976" s="46"/>
-      <c r="I976" s="46"/>
-      <c r="J976" s="46"/>
-      <c r="K976" s="47"/>
-      <c r="L976" s="47"/>
-      <c r="M976" s="45"/>
-      <c r="N976" s="44"/>
-      <c r="O976" s="44"/>
-      <c r="P976" s="44"/>
-      <c r="Q976" s="44"/>
-      <c r="R976" s="46"/>
-      <c r="S976" s="44"/>
-      <c r="T976" s="45"/>
-      <c r="U976" s="45"/>
-      <c r="V976" s="45"/>
-      <c r="W976" s="45"/>
-      <c r="X976" s="45"/>
-      <c r="Y976" s="45"/>
-      <c r="Z976" s="44"/>
-      <c r="AA976" s="45"/>
-      <c r="AB976" s="44"/>
-      <c r="AC976" s="44"/>
-      <c r="AD976" s="44"/>
-      <c r="AE976" s="44"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="44"/>
-      <c r="B977" s="45"/>
-      <c r="C977" s="45"/>
-      <c r="D977" s="45"/>
-      <c r="E977" s="45"/>
-      <c r="F977" s="46"/>
-      <c r="G977" s="45"/>
-      <c r="H977" s="46"/>
-      <c r="I977" s="46"/>
-      <c r="J977" s="46"/>
-      <c r="K977" s="47"/>
-      <c r="L977" s="47"/>
-      <c r="M977" s="45"/>
-      <c r="N977" s="44"/>
-      <c r="O977" s="44"/>
-      <c r="P977" s="44"/>
-      <c r="Q977" s="44"/>
-      <c r="R977" s="46"/>
-      <c r="S977" s="44"/>
-      <c r="T977" s="45"/>
-      <c r="U977" s="45"/>
-      <c r="V977" s="45"/>
-      <c r="W977" s="45"/>
-      <c r="X977" s="45"/>
-      <c r="Y977" s="45"/>
-      <c r="Z977" s="44"/>
-      <c r="AA977" s="45"/>
-      <c r="AB977" s="44"/>
-      <c r="AC977" s="44"/>
-      <c r="AD977" s="44"/>
-      <c r="AE977" s="44"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="44"/>
-      <c r="B978" s="45"/>
-      <c r="C978" s="45"/>
-      <c r="D978" s="45"/>
-      <c r="E978" s="45"/>
-      <c r="F978" s="46"/>
-      <c r="G978" s="45"/>
-      <c r="H978" s="46"/>
-      <c r="I978" s="46"/>
-      <c r="J978" s="46"/>
-      <c r="K978" s="47"/>
-      <c r="L978" s="47"/>
-      <c r="M978" s="45"/>
-      <c r="N978" s="44"/>
-      <c r="O978" s="44"/>
-      <c r="P978" s="44"/>
-      <c r="Q978" s="44"/>
-      <c r="R978" s="46"/>
-      <c r="S978" s="44"/>
-      <c r="T978" s="45"/>
-      <c r="U978" s="45"/>
-      <c r="V978" s="45"/>
-      <c r="W978" s="45"/>
-      <c r="X978" s="45"/>
-      <c r="Y978" s="45"/>
-      <c r="Z978" s="44"/>
-      <c r="AA978" s="45"/>
-      <c r="AB978" s="44"/>
-      <c r="AC978" s="44"/>
-      <c r="AD978" s="44"/>
-      <c r="AE978" s="44"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -41001,7 +40864,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>18</v>
@@ -41016,7 +40879,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1" s="50" t="s">
         <v>12</v>

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -1016,6 +1016,9 @@
     <t>ORG.RO.ORG.001.LEC.01</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>IMP.RO.ORG.001.LEC.01.........</t>
   </si>
   <si>
@@ -1029,9 +1032,6 @@
   </si>
   <si>
     <t>ORG.RO.ORG.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>IMP.RO.ORG.001.MAJ.01.........</t>
@@ -3305,8 +3305,8 @@
       <c r="K6" s="23">
         <v>0.0</v>
       </c>
-      <c r="L6" s="23">
-        <v>10.0</v>
+      <c r="L6" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>44</v>
@@ -4579,8 +4579,8 @@
       <c r="K19" s="23">
         <v>0.0</v>
       </c>
-      <c r="L19" s="23">
-        <v>0.0</v>
+      <c r="L19" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>44</v>
@@ -4677,8 +4677,8 @@
       <c r="K20" s="23">
         <v>0.0</v>
       </c>
-      <c r="L20" s="23">
-        <v>0.0</v>
+      <c r="L20" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>44</v>
@@ -4775,8 +4775,8 @@
       <c r="K21" s="23">
         <v>0.0</v>
       </c>
-      <c r="L21" s="23">
-        <v>0.0</v>
+      <c r="L21" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>44</v>
@@ -4873,8 +4873,8 @@
       <c r="K22" s="23">
         <v>0.0</v>
       </c>
-      <c r="L22" s="23">
-        <v>0.0</v>
+      <c r="L22" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>44</v>
@@ -4971,8 +4971,8 @@
       <c r="K23" s="23">
         <v>0.0</v>
       </c>
-      <c r="L23" s="23">
-        <v>0.0</v>
+      <c r="L23" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M23" s="17" t="s">
         <v>44</v>
@@ -5069,8 +5069,8 @@
       <c r="K24" s="23">
         <v>0.0</v>
       </c>
-      <c r="L24" s="23">
-        <v>0.0</v>
+      <c r="L24" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>44</v>
@@ -5167,8 +5167,8 @@
       <c r="K25" s="23">
         <v>0.0</v>
       </c>
-      <c r="L25" s="23">
-        <v>0.0</v>
+      <c r="L25" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M25" s="17" t="s">
         <v>44</v>
@@ -5265,8 +5265,8 @@
       <c r="K26" s="23">
         <v>0.0</v>
       </c>
-      <c r="L26" s="23">
-        <v>0.0</v>
+      <c r="L26" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M26" s="17" t="s">
         <v>44</v>
@@ -5363,8 +5363,8 @@
       <c r="K27" s="23">
         <v>0.0</v>
       </c>
-      <c r="L27" s="23">
-        <v>0.0</v>
+      <c r="L27" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M27" s="17" t="s">
         <v>44</v>
@@ -5461,8 +5461,8 @@
       <c r="K28" s="23">
         <v>0.0</v>
       </c>
-      <c r="L28" s="23">
-        <v>0.0</v>
+      <c r="L28" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>44</v>
@@ -5559,8 +5559,8 @@
       <c r="K29" s="23">
         <v>0.0</v>
       </c>
-      <c r="L29" s="23">
-        <v>0.0</v>
+      <c r="L29" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>44</v>
@@ -5657,8 +5657,8 @@
       <c r="K30" s="23">
         <v>0.0</v>
       </c>
-      <c r="L30" s="23">
-        <v>0.0</v>
+      <c r="L30" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>44</v>
@@ -5755,8 +5755,8 @@
       <c r="K31" s="23">
         <v>0.0</v>
       </c>
-      <c r="L31" s="23">
-        <v>0.0</v>
+      <c r="L31" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>44</v>
@@ -6147,8 +6147,8 @@
       <c r="K35" s="23">
         <v>0.0</v>
       </c>
-      <c r="L35" s="23">
-        <v>0.0</v>
+      <c r="L35" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M35" s="17" t="s">
         <v>44</v>
@@ -6245,8 +6245,8 @@
       <c r="K36" s="23">
         <v>0.0</v>
       </c>
-      <c r="L36" s="23">
-        <v>0.0</v>
+      <c r="L36" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>44</v>
@@ -6343,8 +6343,8 @@
       <c r="K37" s="23">
         <v>0.0</v>
       </c>
-      <c r="L37" s="23">
-        <v>0.0</v>
+      <c r="L37" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>44</v>
@@ -6441,8 +6441,8 @@
       <c r="K38" s="23">
         <v>0.0</v>
       </c>
-      <c r="L38" s="23">
-        <v>10.0</v>
+      <c r="L38" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>44</v>
@@ -6637,8 +6637,8 @@
       <c r="K40" s="23">
         <v>0.0</v>
       </c>
-      <c r="L40" s="23">
-        <v>0.0</v>
+      <c r="L40" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>44</v>
@@ -6735,8 +6735,8 @@
       <c r="K41" s="23">
         <v>0.0</v>
       </c>
-      <c r="L41" s="23">
-        <v>0.0</v>
+      <c r="L41" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>44</v>
@@ -6833,8 +6833,8 @@
       <c r="K42" s="23">
         <v>0.0</v>
       </c>
-      <c r="L42" s="23">
-        <v>0.0</v>
+      <c r="L42" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M42" s="17" t="s">
         <v>44</v>
@@ -6931,8 +6931,8 @@
       <c r="K43" s="23">
         <v>0.0</v>
       </c>
-      <c r="L43" s="23">
-        <v>0.0</v>
+      <c r="L43" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>44</v>
@@ -7029,8 +7029,8 @@
       <c r="K44" s="23">
         <v>0.0</v>
       </c>
-      <c r="L44" s="23">
-        <v>0.0</v>
+      <c r="L44" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>44</v>
@@ -7127,8 +7127,8 @@
       <c r="K45" s="23">
         <v>0.0</v>
       </c>
-      <c r="L45" s="23">
-        <v>0.0</v>
+      <c r="L45" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M45" s="17" t="s">
         <v>44</v>
@@ -7225,8 +7225,8 @@
       <c r="K46" s="23">
         <v>0.0</v>
       </c>
-      <c r="L46" s="23">
-        <v>0.0</v>
+      <c r="L46" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>44</v>
@@ -7323,8 +7323,8 @@
       <c r="K47" s="23">
         <v>0.0</v>
       </c>
-      <c r="L47" s="23">
-        <v>0.0</v>
+      <c r="L47" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>44</v>
@@ -7421,8 +7421,8 @@
       <c r="K48" s="23">
         <v>0.0</v>
       </c>
-      <c r="L48" s="23">
-        <v>0.0</v>
+      <c r="L48" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M48" s="17" t="s">
         <v>44</v>
@@ -7519,8 +7519,8 @@
       <c r="K49" s="23">
         <v>0.0</v>
       </c>
-      <c r="L49" s="23">
-        <v>0.0</v>
+      <c r="L49" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M49" s="17" t="s">
         <v>44</v>
@@ -7617,8 +7617,8 @@
       <c r="K50" s="23">
         <v>0.0</v>
       </c>
-      <c r="L50" s="23">
-        <v>0.0</v>
+      <c r="L50" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>44</v>
@@ -7715,8 +7715,8 @@
       <c r="K51" s="23">
         <v>0.0</v>
       </c>
-      <c r="L51" s="23">
-        <v>0.0</v>
+      <c r="L51" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>44</v>
@@ -7813,8 +7813,8 @@
       <c r="K52" s="23">
         <v>0.0</v>
       </c>
-      <c r="L52" s="23">
-        <v>0.0</v>
+      <c r="L52" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M52" s="17" t="s">
         <v>44</v>
@@ -7911,8 +7911,8 @@
       <c r="K53" s="23">
         <v>0.0</v>
       </c>
-      <c r="L53" s="23">
-        <v>0.0</v>
+      <c r="L53" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M53" s="17" t="s">
         <v>44</v>
@@ -8009,8 +8009,8 @@
       <c r="K54" s="23">
         <v>0.0</v>
       </c>
-      <c r="L54" s="23">
-        <v>0.0</v>
+      <c r="L54" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M54" s="17" t="s">
         <v>44</v>
@@ -8107,8 +8107,8 @@
       <c r="K55" s="23">
         <v>0.0</v>
       </c>
-      <c r="L55" s="23">
-        <v>0.0</v>
+      <c r="L55" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>44</v>
@@ -8205,8 +8205,8 @@
       <c r="K56" s="23">
         <v>0.0</v>
       </c>
-      <c r="L56" s="23">
-        <v>0.0</v>
+      <c r="L56" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M56" s="17" t="s">
         <v>44</v>
@@ -8303,8 +8303,8 @@
       <c r="K57" s="23">
         <v>0.0</v>
       </c>
-      <c r="L57" s="23">
-        <v>0.0</v>
+      <c r="L57" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M57" s="17" t="s">
         <v>44</v>
@@ -8401,8 +8401,8 @@
       <c r="K58" s="23">
         <v>0.0</v>
       </c>
-      <c r="L58" s="23">
-        <v>0.0</v>
+      <c r="L58" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M58" s="17" t="s">
         <v>44</v>
@@ -8499,8 +8499,8 @@
       <c r="K59" s="23">
         <v>0.0</v>
       </c>
-      <c r="L59" s="23">
-        <v>0.0</v>
+      <c r="L59" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M59" s="17" t="s">
         <v>44</v>
@@ -8597,8 +8597,8 @@
       <c r="K60" s="23">
         <v>0.0</v>
       </c>
-      <c r="L60" s="23">
-        <v>0.0</v>
+      <c r="L60" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="17" t="s">
         <v>44</v>
@@ -8695,8 +8695,8 @@
       <c r="K61" s="23">
         <v>0.0</v>
       </c>
-      <c r="L61" s="23">
-        <v>0.0</v>
+      <c r="L61" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M61" s="17" t="s">
         <v>44</v>
@@ -8793,8 +8793,8 @@
       <c r="K62" s="23">
         <v>0.0</v>
       </c>
-      <c r="L62" s="23">
-        <v>0.0</v>
+      <c r="L62" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M62" s="17" t="s">
         <v>44</v>
@@ -8891,8 +8891,8 @@
       <c r="K63" s="23">
         <v>0.0</v>
       </c>
-      <c r="L63" s="23">
-        <v>0.0</v>
+      <c r="L63" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M63" s="17" t="s">
         <v>44</v>
@@ -8989,8 +8989,8 @@
       <c r="K64" s="23">
         <v>0.0</v>
       </c>
-      <c r="L64" s="23">
-        <v>0.0</v>
+      <c r="L64" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M64" s="17" t="s">
         <v>44</v>
@@ -9087,8 +9087,8 @@
       <c r="K65" s="23">
         <v>0.0</v>
       </c>
-      <c r="L65" s="23">
-        <v>0.0</v>
+      <c r="L65" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M65" s="17" t="s">
         <v>44</v>
@@ -9185,8 +9185,8 @@
       <c r="K66" s="23">
         <v>0.0</v>
       </c>
-      <c r="L66" s="23">
-        <v>0.0</v>
+      <c r="L66" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="17" t="s">
         <v>44</v>
@@ -9283,8 +9283,8 @@
       <c r="K67" s="23">
         <v>0.0</v>
       </c>
-      <c r="L67" s="23">
-        <v>0.0</v>
+      <c r="L67" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M67" s="17" t="s">
         <v>44</v>
@@ -11342,7 +11342,7 @@
         <v>1.0</v>
       </c>
       <c r="L88" s="43">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M88" s="42" t="s">
         <v>64</v>
@@ -11376,7 +11376,7 @@
         <v>RO.ORG.001.LEC.01</v>
       </c>
       <c r="W88" s="25" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="X88" s="17" t="s">
         <v>44</v>
@@ -11388,7 +11388,7 @@
         <v>47</v>
       </c>
       <c r="AA88" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AB88" s="24" t="s">
         <v>45</v>
@@ -11405,20 +11405,20 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" s="16" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.MAJ.01.............</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F89" s="21">
         <v>1088.0</v>
@@ -11434,7 +11434,7 @@
         <v>88.0</v>
       </c>
       <c r="J89" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K89" s="23">
         <v>1.0</v>
@@ -11474,7 +11474,7 @@
         <v>RO.ORG.001.MAJ.01</v>
       </c>
       <c r="W89" s="25" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="X89" s="17" t="s">
         <v>44</v>
@@ -11537,8 +11537,8 @@
       <c r="K90" s="23">
         <v>0.0</v>
       </c>
-      <c r="L90" s="43">
-        <v>0.0</v>
+      <c r="L90" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M90" s="17" t="s">
         <v>44</v>
@@ -11635,8 +11635,8 @@
       <c r="K91" s="23">
         <v>0.0</v>
       </c>
-      <c r="L91" s="43">
-        <v>0.0</v>
+      <c r="L91" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="M91" s="17" t="s">
         <v>44</v>
@@ -41956,13 +41956,13 @@
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="27">
         <v>2042.0</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D43" s="53">
         <v>10.0</v>

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -11492,13 +11492,13 @@
         <v>45</v>
       </c>
       <c r="AC89" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD89" s="24" t="s">
         <v>46</v>
       </c>
       <c r="AE89" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">

--- a/TNR_PREJDD/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ORG.xlsx
@@ -1064,61 +1064,61 @@
     <t>ORG.ACT.RT.MAT.001.CRE.01</t>
   </si>
   <si>
-    <t>ORG91</t>
+    <t>ORG100</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.02</t>
   </si>
   <si>
-    <t>ORG92</t>
+    <t>ORG101</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.03</t>
   </si>
   <si>
-    <t>ORG93</t>
+    <t>ORG102</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.04</t>
   </si>
   <si>
-    <t>ORG94</t>
+    <t>ORG103</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.05</t>
   </si>
   <si>
-    <t>ORG95</t>
+    <t>ORG104</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.06</t>
   </si>
   <si>
-    <t>ORG96</t>
+    <t>ORG105</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.CRE.07</t>
   </si>
   <si>
-    <t>ORG97</t>
+    <t>ORG106</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.LEC.01</t>
   </si>
   <si>
-    <t>ORG98</t>
+    <t>ORG107</t>
   </si>
   <si>
     <t>ORG.ACT.RT.MAT.001.MAJ.01</t>
   </si>
   <si>
-    <t>ORG99</t>
+    <t>ORG108</t>
   </si>
   <si>
     <t>ORG.ACT.UPD.RT.MAT.001.MAJ.01</t>
   </si>
   <si>
-    <t>ORG100</t>
+    <t>ORG109</t>
   </si>
   <si>
     <t>CAS_DE_TEST (SER)</t>
